--- a/graph creation.xlsx
+++ b/graph creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad92aa2f3251f1bf/Documents/Year 3 - CS/Systems Project/Actual Project Work/code/FINAL FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE18C6C-A7EE-4C76-831B-C12AFCE69DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2CE18C6C-A7EE-4C76-831B-C12AFCE69DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D8F5EFB7-02C9-4974-9CFE-21BEC547192E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{075612B7-0557-4B48-8EEC-E5D46E63D9B4}"/>
   </bookViews>
@@ -8123,6 +8123,7 @@
         <c:axId val="1158789375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
